--- a/angularjs/my-app/src/assets/Workbook1.xlsx
+++ b/angularjs/my-app/src/assets/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1040" windowWidth="21220" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>angry</t>
   </si>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+      <selection activeCell="R5" sqref="R5:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
@@ -587,7 +587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -637,7 +637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -668,8 +668,14 @@
       <c r="O5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
@@ -697,8 +703,14 @@
       <c r="O6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -733,8 +745,14 @@
       <c r="O7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -766,8 +784,14 @@
       <c r="O8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -806,8 +830,14 @@
       <c r="O9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -843,8 +873,14 @@
       <c r="O10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -887,8 +923,14 @@
       <c r="O11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -925,40 +967,65 @@
       <c r="N12" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
         <v>18</v>
       </c>
       <c r="O13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N15" t="s">
         <v>17</v>
       </c>
       <c r="O15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N16" t="s">
         <v>30</v>
       </c>
       <c r="O16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -976,14 +1043,26 @@
       <c r="O17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="N18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="N19" t="s">
         <v>34</v>
@@ -991,11 +1070,18 @@
       <c r="O19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1008,19 +1094,19 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
   </sheetData>
